--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgsi\IdeaProjects\SE2324_63191_63324-62654_63069_62551_62482\Project_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E75DC-9610-4448-88EA-035D81E5128B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39704917-7BCE-4FC5-8B9F-5E906446C4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7104" yWindow="8964" windowWidth="23040" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Tasks:</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>First quick look at the code</t>
+  </si>
+  <si>
+    <t>Create User Stories</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C8"/>
+  <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,6 +428,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgsi\IdeaProjects\SE2324_63191_63324-62654_63069_62551_62482\Project_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39704917-7BCE-4FC5-8B9F-5E906446C4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30F27F07-9660-6F47-911A-430DE87417B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="2300" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Week 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Week 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Week 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Week 5" sheetId="6" r:id="rId5"/>
+    <sheet name="Week 6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +41,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Tasks:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Task Description</t>
   </si>
   <si>
     <t>Set up the gitHub repository</t>
@@ -56,14 +64,200 @@
     <t>First quick look at the code</t>
   </si>
   <si>
-    <t>Create User Stories</t>
+    <t>Define User Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for code smells in source code </t>
+  </si>
+  <si>
+    <t>Identify gof patterns</t>
+  </si>
+  <si>
+    <t>Analyze metrics</t>
+  </si>
+  <si>
+    <t>Setup metrics in IntelliJ</t>
+  </si>
+  <si>
+    <t>Use Case Diagrams</t>
+  </si>
+  <si>
+    <t>Look for code smells in source code.</t>
+  </si>
+  <si>
+    <t>Identify GoF patterns.</t>
+  </si>
+  <si>
+    <t>Analyze metric data.</t>
+  </si>
+  <si>
+    <t>Create Use Case Diagrams.</t>
+  </si>
+  <si>
+    <t>Review peers.</t>
+  </si>
+  <si>
+    <t>Fix work according to reviews.</t>
+  </si>
+  <si>
+    <t>Adding gunpowder good and resource, alongside the necessary messages and a placeholder image.</t>
+  </si>
+  <si>
+    <t>Implementing caves exploration.</t>
+  </si>
+  <si>
+    <t>Implementing the combat feature allowing to gain the enemy boat.</t>
+  </si>
+  <si>
+    <t>Implementing gunpowder and ammunition.</t>
+  </si>
+  <si>
+    <t>Adding gunpowder good and resource, alongside the necessary messages and a placeholder image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added ammunition good type </t>
+  </si>
+  <si>
+    <t>Added ammunition logic</t>
+  </si>
+  <si>
+    <t>Added ammunition production building</t>
+  </si>
+  <si>
+    <t>Added roles for spending ammuntion</t>
+  </si>
+  <si>
+    <t>Implementing caves exploration and mining.</t>
+  </si>
+  <si>
+    <t>Added cave tile item</t>
+  </si>
+  <si>
+    <t>Added cave logic</t>
+  </si>
+  <si>
+    <t>Unit interation with cave</t>
+  </si>
+  <si>
+    <t>Added cave item image and XML references</t>
+  </si>
+  <si>
+    <t>Implementing the combat feature, allowing the claim of the enemy boat.</t>
+  </si>
+  <si>
+    <t>Added function to capture ship</t>
+  </si>
+  <si>
+    <t>Added a button to enable capturing ship</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Week 5 tasks</t>
+  </si>
+  <si>
+    <t>Gunpowder and ammunition clean-up and Unit tests.</t>
+  </si>
+  <si>
+    <t>Merge branches and resolved conflicts with Mines-of-Moria.</t>
+  </si>
+  <si>
+    <t>Added Cave tile.</t>
+  </si>
+  <si>
+    <t>Made Cave tile items spawn exclusively on Cave tiles.</t>
+  </si>
+  <si>
+    <t>Added Unit tests.</t>
+  </si>
+  <si>
+    <t>Bug fixes.</t>
+  </si>
+  <si>
+    <t>Caves clean-up and Unit tests.</t>
+  </si>
+  <si>
+    <t>Enemy boat claiming clean-up and Unit tests.</t>
+  </si>
+  <si>
+    <t>Implemented success probability.</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Recorded demonstration video.</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Merge remaining branches and resolve conflicts.</t>
+  </si>
+  <si>
+    <t>Created final report.</t>
+  </si>
+  <si>
+    <t>Implemented message after combat.</t>
+  </si>
+  <si>
+    <t>Assign code segments to team members</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,25 +266,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -98,20 +335,345 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5EB8D469-C8F0-4F36-B6FA-453BF9CEBA74}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -121,6 +683,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -140,7 +706,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -152,7 +718,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -199,6 +765,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -234,6 +817,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,56 +985,838 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D0595B-B6C3-4116-97D9-B9DD4C548471}">
+  <dimension ref="B2:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="23">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="23">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="23">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>6</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8A5248-A6AA-4A7D-B23C-71E2DA3002B2}">
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="6" max="10" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="4" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="C6" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="C7" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="C8" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="C9" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="23">
         <v>6</v>
       </c>
+      <c r="C10" s="28" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F05A20E-F960-466C-A7D9-0C447D3E8DDD}">
+  <dimension ref="B2:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="23">
+        <v>2</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="23">
+        <v>4</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="23">
+        <v>5</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="23">
+        <v>6</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B13F0B-5C82-4A65-B391-5D533F9BADF3}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="76.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23">
+        <v>2</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD598C9-8C19-8045-9058-307ED2FB926C}">
+  <dimension ref="B2:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D607D91C-C08D-1C40-B0B4-BEEAAE3F830E}">
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B19" s="20">
+        <v>4</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21">
+        <v>6</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EA6DE6520660014F909ED4D690581D99" ma:contentTypeVersion="0" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="0963fafc81e756851797ef866a65fefe">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a86f9ef69356bc5d2158216095de652a">
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all/>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{738E5DA7-A17B-4FAD-9104-2B5232F8C5EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{612D18BE-71E8-4EBC-AC22-EB1D6ECED47C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF93E43-0769-4CD0-A2DD-49C5CE2CDD2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>